--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cdh1-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cdh1-Egfr.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09886600000000001</v>
+        <v>0.002166666666666667</v>
       </c>
       <c r="H2">
-        <v>0.296598</v>
+        <v>0.0065</v>
       </c>
       <c r="I2">
-        <v>0.3026185969870576</v>
+        <v>0.004890446475191893</v>
       </c>
       <c r="J2">
-        <v>0.3026185969870576</v>
+        <v>0.004890446475191893</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N2">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O2">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P2">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q2">
-        <v>0.1292284077066667</v>
+        <v>0.0009289431666666667</v>
       </c>
       <c r="R2">
-        <v>1.16305566936</v>
+        <v>0.008360488500000001</v>
       </c>
       <c r="S2">
-        <v>0.003801685933965505</v>
+        <v>2.015110401160008E-05</v>
       </c>
       <c r="T2">
-        <v>0.003801685933965505</v>
+        <v>2.015110401160008E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09886600000000001</v>
+        <v>0.002166666666666667</v>
       </c>
       <c r="H3">
-        <v>0.296598</v>
+        <v>0.0065</v>
       </c>
       <c r="I3">
-        <v>0.3026185969870576</v>
+        <v>0.004890446475191893</v>
       </c>
       <c r="J3">
-        <v>0.3026185969870576</v>
+        <v>0.004890446475191893</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N3">
         <v>240.678711</v>
       </c>
       <c r="O3">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P3">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q3">
-        <v>7.931647147242002</v>
+        <v>0.1738235134999999</v>
       </c>
       <c r="R3">
-        <v>71.38482432517802</v>
+        <v>1.5644116215</v>
       </c>
       <c r="S3">
-        <v>0.233335935402785</v>
+        <v>0.003770667384065229</v>
       </c>
       <c r="T3">
-        <v>0.233335935402785</v>
+        <v>0.003770667384065229</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.09886600000000001</v>
+        <v>0.002166666666666667</v>
       </c>
       <c r="H4">
-        <v>0.296598</v>
+        <v>0.0065</v>
       </c>
       <c r="I4">
-        <v>0.3026185969870576</v>
+        <v>0.004890446475191893</v>
       </c>
       <c r="J4">
-        <v>0.3026185969870576</v>
+        <v>0.004890446475191893</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N4">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O4">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P4">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q4">
-        <v>2.225855150938667</v>
+        <v>0.05069160994444444</v>
       </c>
       <c r="R4">
-        <v>20.032696358448</v>
+        <v>0.4562244895</v>
       </c>
       <c r="S4">
-        <v>0.06548097565030707</v>
+        <v>0.001099627987115065</v>
       </c>
       <c r="T4">
-        <v>0.06548097565030707</v>
+        <v>0.001099627987115065</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2278356666666667</v>
+        <v>0.440874</v>
       </c>
       <c r="H5">
-        <v>0.683507</v>
+        <v>1.322622</v>
       </c>
       <c r="I5">
-        <v>0.6973814030129425</v>
+        <v>0.9951095535248081</v>
       </c>
       <c r="J5">
-        <v>0.6973814030129425</v>
+        <v>0.9951095535248081</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N5">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O5">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P5">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q5">
-        <v>0.2978055188044444</v>
+        <v>0.189021641382</v>
       </c>
       <c r="R5">
-        <v>2.68024966924</v>
+        <v>1.701194772438</v>
       </c>
       <c r="S5">
-        <v>0.008760945615503004</v>
+        <v>0.00410035284462008</v>
       </c>
       <c r="T5">
-        <v>0.008760945615503004</v>
+        <v>0.00410035284462008</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2278356666666667</v>
+        <v>0.440874</v>
       </c>
       <c r="H6">
-        <v>0.683507</v>
+        <v>1.322622</v>
       </c>
       <c r="I6">
-        <v>0.6973814030129425</v>
+        <v>0.9951095535248081</v>
       </c>
       <c r="J6">
-        <v>0.6973814030129425</v>
+        <v>0.9951095535248081</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N6">
         <v>240.678711</v>
       </c>
       <c r="O6">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P6">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q6">
-        <v>18.278398191053</v>
+        <v>35.36966201113799</v>
       </c>
       <c r="R6">
-        <v>164.505583719477</v>
+        <v>318.3269581002419</v>
       </c>
       <c r="S6">
-        <v>0.5377202314221651</v>
+        <v>0.7672565595149418</v>
       </c>
       <c r="T6">
-        <v>0.5377202314221651</v>
+        <v>0.7672565595149418</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2278356666666667</v>
+        <v>0.440874</v>
       </c>
       <c r="H7">
-        <v>0.683507</v>
+        <v>1.322622</v>
       </c>
       <c r="I7">
-        <v>0.6973814030129425</v>
+        <v>0.9951095535248081</v>
       </c>
       <c r="J7">
-        <v>0.6973814030129425</v>
+        <v>0.9951095535248081</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N7">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O7">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P7">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q7">
-        <v>5.129459998559111</v>
+        <v>10.314744388914</v>
       </c>
       <c r="R7">
-        <v>46.165139987032</v>
+        <v>92.832699500226</v>
       </c>
       <c r="S7">
-        <v>0.1509002259752744</v>
+        <v>0.2237526411652464</v>
       </c>
       <c r="T7">
-        <v>0.1509002259752744</v>
+        <v>0.2237526411652464</v>
       </c>
     </row>
   </sheetData>
